--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2075113.628758586</v>
+        <v>2145642.015304686</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6420672.511903705</v>
+        <v>5301029.811029741</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2837136.506768293</v>
+        <v>2166967.111789206</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7029585.112353278</v>
+        <v>7239318.432198205</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>140.8747407686506</v>
+        <v>397.9777509810539</v>
       </c>
       <c r="F2" t="n">
         <v>16.8201079258493</v>
@@ -674,10 +676,10 @@
         <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
@@ -877,13 +879,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>98.41262563052116</v>
+        <v>220.9263373332095</v>
       </c>
     </row>
     <row r="5">
@@ -896,16 +898,16 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>343.5690855502801</v>
+        <v>388.9364112694136</v>
       </c>
       <c r="E5" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
         <v>404.6410012660961</v>
@@ -914,7 +916,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1057,22 +1059,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>126.5342018220654</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>179.3129341146933</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>94.10761302658302</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>161.7257111612966</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
         <v>237.1532516330649</v>
@@ -1354,10 +1356,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>180.6077930059086</v>
       </c>
       <c r="Y10" t="n">
-        <v>213.5952110672383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1384,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>121.9257528389773</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -1528,16 +1530,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>83.76217398785609</v>
+        <v>220.2647746254034</v>
       </c>
       <c r="X13" t="n">
         <v>235.9604235189134</v>
@@ -1607,22 +1609,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>388.0357183852213</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>361.0003448878583</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
         <v>254.489886823085</v>
@@ -1762,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.35843381149044</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
         <v>165.577887163712</v>
@@ -1822,13 +1824,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -1841,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>369.6581867526364</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
@@ -1895,7 +1897,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>187.6971066458115</v>
       </c>
       <c r="U17" t="n">
         <v>254.489886823085</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>159.3854280103019</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>213.5952110672386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2083,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>360.176182737529</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
@@ -2099,7 +2101,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>31.42227043795242</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2144,7 +2146,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
         <v>396.9273063213908</v>
@@ -2251,13 +2253,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>135.8447834840487</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2302,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>192.9312320650017</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -2321,10 +2323,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>368.1319780410717</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
         <v>416.8201079258493</v>
@@ -2333,7 +2335,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>85.2997057160983</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -2369,7 +2371,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>254.489886823085</v>
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2527,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>228.2601210751805</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>266.2723283900672</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
@@ -2573,7 +2575,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>31.99018014062471</v>
+        <v>31.42227043795236</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2807,7 +2809,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -2843,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.2279701699385</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>166.7165542762732</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3013,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3046,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>304.7162152260364</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.42227043795236</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3193,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3205,7 +3207,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>229.9544122483261</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>186.261668506837</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
@@ -3272,16 +3274,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>373.8316553010464</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>269.9562877695847</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
         <v>85.48824505609757</v>
@@ -3427,22 +3429,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>58.1159391966522</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>144.2018606410493</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>406.0233447798626</v>
@@ -3560,16 +3562,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>283.7777510779965</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>360.5621482941648</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>153.0251390105127</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>44.74588807992418</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3746,13 +3748,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>32.74069120500511</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
         <v>307.7994123985592</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3898,25 +3900,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>42.43741174507654</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>27.35334490128844</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3952,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3986,7 +3988,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>404.6410012660961</v>
@@ -3995,7 +3997,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,16 +4033,16 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>163.464180086544</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>22.92681701721022</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>100.6944412263551</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>42.53944252213928</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1020.329212244076</v>
+        <v>869.2086745340351</v>
       </c>
       <c r="C2" t="n">
-        <v>610.2046215573456</v>
+        <v>863.1244878877093</v>
       </c>
       <c r="D2" t="n">
-        <v>205.7406916504061</v>
+        <v>862.7009620211738</v>
       </c>
       <c r="E2" t="n">
-        <v>63.44297370227418</v>
+        <v>460.703233757483</v>
       </c>
       <c r="F2" t="n">
-        <v>46.45296569636579</v>
+        <v>443.7132257515746</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
@@ -4331,19 +4333,19 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>733.4074053521598</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L2" t="n">
-        <v>733.4074053521598</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M2" t="n">
-        <v>733.4074053521598</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N2" t="n">
-        <v>733.4074053521598</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O2" t="n">
-        <v>1250.250340018485</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P2" t="n">
         <v>1767.09327468481</v>
@@ -4358,22 +4360,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U2" t="n">
-        <v>1831.193789739612</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V2" t="n">
-        <v>1831.193789739612</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="W2" t="n">
-        <v>1831.193789739612</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="X2" t="n">
-        <v>1430.550391908565</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="Y2" t="n">
-        <v>1430.550391908565</v>
+        <v>875.3894501581206</v>
       </c>
     </row>
     <row r="3">
@@ -4413,7 +4415,7 @@
         <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>690.3841994575342</v>
+        <v>1207.22713412386</v>
       </c>
       <c r="M3" t="n">
         <v>1207.22713412386</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4510,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1331.615243227154</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U4" t="n">
-        <v>1048.817095773278</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V4" t="n">
-        <v>774.9313507128002</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W4" t="n">
-        <v>495.8616862216745</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="X4" t="n">
-        <v>257.5178240813579</v>
+        <v>264.9230021277934</v>
       </c>
       <c r="Y4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1545.855757598208</v>
+        <v>2082.073505856017</v>
       </c>
       <c r="C5" t="n">
-        <v>1135.731166911478</v>
+        <v>2075.989319209691</v>
       </c>
       <c r="D5" t="n">
-        <v>788.6916865576595</v>
+        <v>1683.124257321394</v>
       </c>
       <c r="E5" t="n">
-        <v>778.3918751149603</v>
+        <v>1268.784041838291</v>
       </c>
       <c r="F5" t="n">
-        <v>761.4018671090519</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G5" t="n">
-        <v>352.673583001884</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
@@ -4568,19 +4570,19 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
         <v>812.7934917636817</v>
       </c>
       <c r="M5" t="n">
-        <v>812.7934917636817</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N5" t="n">
         <v>1329.636426430007</v>
       </c>
       <c r="O5" t="n">
-        <v>1767.09327468481</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P5" t="n">
         <v>1767.09327468481</v>
@@ -4592,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y5" t="n">
-        <v>1552.036533222293</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="6">
@@ -4644,28 +4646,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>219.3581718355392</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>675.1644281008379</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L6" t="n">
-        <v>675.1644281008379</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M6" t="n">
-        <v>1192.007362767163</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N6" t="n">
-        <v>1708.850297433488</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="O6" t="n">
-        <v>1708.850297433488</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P6" t="n">
-        <v>1708.850297433488</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q6" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.76508562960205</v>
+        <v>923.1867626758396</v>
       </c>
       <c r="C7" t="n">
-        <v>41.76508562960205</v>
+        <v>923.1867626758396</v>
       </c>
       <c r="D7" t="n">
-        <v>41.76508562960205</v>
+        <v>763.6921179987496</v>
       </c>
       <c r="E7" t="n">
-        <v>41.76508562960205</v>
+        <v>602.7813028670691</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4747,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1485.891263925851</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T7" t="n">
-        <v>1246.342524902554</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="U7" t="n">
-        <v>963.5443774486778</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="V7" t="n">
-        <v>689.6586323881997</v>
+        <v>1110.886469069884</v>
       </c>
       <c r="W7" t="n">
-        <v>410.5889678970741</v>
+        <v>1110.886469069884</v>
       </c>
       <c r="X7" t="n">
-        <v>229.4647920236465</v>
+        <v>1110.886469069884</v>
       </c>
       <c r="Y7" t="n">
-        <v>229.4647920236465</v>
+        <v>1110.886469069884</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>484.2909016982387</v>
+        <v>2541.96541775283</v>
       </c>
       <c r="C8" t="n">
-        <v>74.16631101150881</v>
+        <v>2131.840827066101</v>
       </c>
       <c r="D8" t="n">
-        <v>73.74278514497341</v>
+        <v>1727.376897159161</v>
       </c>
       <c r="E8" t="n">
-        <v>63.44297370227418</v>
+        <v>1313.036681676058</v>
       </c>
       <c r="F8" t="n">
-        <v>46.45296569636579</v>
+        <v>892.0062696297455</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>483.2779855225776</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>172.3694881502956</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="K8" t="n">
-        <v>558.6080202959273</v>
+        <v>624.1772265764083</v>
       </c>
       <c r="L8" t="n">
-        <v>1075.450954962253</v>
+        <v>1336.768626388646</v>
       </c>
       <c r="M8" t="n">
-        <v>1592.293889628578</v>
+        <v>2113.0872173804</v>
       </c>
       <c r="N8" t="n">
-        <v>1592.293889628578</v>
+        <v>2866.268234019018</v>
       </c>
       <c r="O8" t="n">
-        <v>1726.536628995245</v>
+        <v>3509.899090436123</v>
       </c>
       <c r="P8" t="n">
-        <v>1726.536628995245</v>
+        <v>4039.055788355275</v>
       </c>
       <c r="Q8" t="n">
-        <v>2047.697635790537</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="R8" t="n">
-        <v>2088.254281480102</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="S8" t="n">
-        <v>1952.973206274203</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="T8" t="n">
-        <v>1730.766722221062</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="U8" t="n">
-        <v>1730.766722221062</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="V8" t="n">
-        <v>1380.929167557543</v>
+        <v>4137.526969165108</v>
       </c>
       <c r="W8" t="n">
-        <v>1380.929167557543</v>
+        <v>3753.766668300277</v>
       </c>
       <c r="X8" t="n">
-        <v>980.2857697264951</v>
+        <v>3353.12327046923</v>
       </c>
       <c r="Y8" t="n">
-        <v>579.3490966745852</v>
+        <v>2952.18659741732</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161365</v>
+        <v>764.848567353903</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650821</v>
+        <v>630.8534961028488</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844746</v>
+        <v>513.9563383222412</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768026</v>
+        <v>393.4635223145692</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593071</v>
+        <v>284.5036424970738</v>
       </c>
       <c r="G9" t="n">
-        <v>133.2608899736458</v>
+        <v>177.5135298114125</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936187</v>
+        <v>106.7663168471286</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="K9" t="n">
-        <v>497.5713418949007</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="L9" t="n">
-        <v>1014.414276561226</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="M9" t="n">
-        <v>1014.414276561226</v>
+        <v>928.9948061619355</v>
       </c>
       <c r="N9" t="n">
-        <v>1531.257211227551</v>
+        <v>1802.652898273553</v>
       </c>
       <c r="O9" t="n">
-        <v>2048.100145893876</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="P9" t="n">
-        <v>2088.254281480102</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="R9" t="n">
-        <v>2088.254281480102</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="S9" t="n">
-        <v>1980.264271594411</v>
+        <v>2024.516911432177</v>
       </c>
       <c r="T9" t="n">
-        <v>1820.922407781419</v>
+        <v>1865.175047619186</v>
       </c>
       <c r="U9" t="n">
-        <v>1623.571596919638</v>
+        <v>1667.824236757404</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912671</v>
+        <v>1454.112709750438</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649</v>
+        <v>1240.879541486767</v>
       </c>
       <c r="X9" t="n">
-        <v>1020.300919787893</v>
+        <v>1064.55355962566</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517231</v>
+        <v>905.1515999894897</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="C10" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="D10" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="E10" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="F10" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481257</v>
+        <v>100.1002748725793</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570506</v>
+        <v>254.6526025948173</v>
       </c>
       <c r="L10" t="n">
-        <v>470.2970630371111</v>
+        <v>514.5497028748778</v>
       </c>
       <c r="M10" t="n">
-        <v>759.5611194776044</v>
+        <v>803.813759315371</v>
       </c>
       <c r="N10" t="n">
-        <v>1040.399901871855</v>
+        <v>1084.652541709621</v>
       </c>
       <c r="O10" t="n">
-        <v>1299.960512198329</v>
+        <v>1344.213152036095</v>
       </c>
       <c r="P10" t="n">
-        <v>1505.635952447941</v>
+        <v>1549.888592285708</v>
       </c>
       <c r="Q10" t="n">
-        <v>1571.163982250452</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1571.163982250452</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="S10" t="n">
-        <v>1571.163982250452</v>
+        <v>1343.752135643529</v>
       </c>
       <c r="T10" t="n">
-        <v>1331.615243227154</v>
+        <v>1104.203396620231</v>
       </c>
       <c r="U10" t="n">
-        <v>1048.817095773278</v>
+        <v>821.4052491663549</v>
       </c>
       <c r="V10" t="n">
-        <v>774.9313507128002</v>
+        <v>547.5195041058769</v>
       </c>
       <c r="W10" t="n">
-        <v>495.8616862216745</v>
+        <v>268.4498396147512</v>
       </c>
       <c r="X10" t="n">
-        <v>257.5178240813579</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1849.004547290386</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C11" t="n">
-        <v>1438.879956603656</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D11" t="n">
-        <v>1034.416026696716</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E11" t="n">
-        <v>620.0758112136132</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F11" t="n">
-        <v>199.0453991673007</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G11" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H11" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I11" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>75.88807306732367</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K11" t="n">
-        <v>614.0475741763632</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L11" t="n">
-        <v>1326.638973988601</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M11" t="n">
-        <v>2102.957564980355</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N11" t="n">
-        <v>2856.138581618973</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O11" t="n">
-        <v>3499.769438036078</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P11" t="n">
-        <v>3794.403653366184</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q11" t="n">
-        <v>3794.403653366184</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R11" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>3794.403653366184</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T11" t="n">
-        <v>3794.403653366184</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U11" t="n">
-        <v>3794.403653366184</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V11" t="n">
-        <v>3444.566098702664</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W11" t="n">
-        <v>3060.805797837833</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X11" t="n">
-        <v>2660.162400006785</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y11" t="n">
-        <v>2259.225726954875</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C12" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D12" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E12" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F12" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G12" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H12" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I12" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>75.88807306732367</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L12" t="n">
-        <v>75.88807306732367</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M12" t="n">
-        <v>687.0132843176757</v>
+        <v>1236.515282066875</v>
       </c>
       <c r="N12" t="n">
-        <v>1560.671376429294</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="O12" t="n">
-        <v>1560.671376429294</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P12" t="n">
-        <v>2122.377268917824</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q12" t="n">
-        <v>2122.377268917824</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R12" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S12" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T12" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U12" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V12" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W12" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X12" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y12" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>75.88807306732367</v>
+        <v>749.3736558270855</v>
       </c>
       <c r="C13" t="n">
-        <v>75.88807306732367</v>
+        <v>578.280283388802</v>
       </c>
       <c r="D13" t="n">
-        <v>75.88807306732367</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="E13" t="n">
-        <v>75.88807306732367</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F13" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G13" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>89.97062247253419</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K13" t="n">
-        <v>244.5229501947722</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L13" t="n">
-        <v>504.4200504748327</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M13" t="n">
-        <v>793.684106915326</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N13" t="n">
-        <v>1074.522889309576</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O13" t="n">
-        <v>1334.08349963605</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P13" t="n">
-        <v>1539.758939885663</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q13" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1520.014251363573</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1333.622483243484</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T13" t="n">
-        <v>1094.073744220186</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U13" t="n">
-        <v>811.2755967663099</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V13" t="n">
-        <v>811.2755967663099</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W13" t="n">
-        <v>726.66734021292</v>
+        <v>1400.152922972682</v>
       </c>
       <c r="X13" t="n">
-        <v>488.3234780726034</v>
+        <v>1161.809060832365</v>
       </c>
       <c r="Y13" t="n">
-        <v>263.5877794613681</v>
+        <v>937.0733622211299</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1591.944055549896</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C14" t="n">
-        <v>1199.988784453713</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D14" t="n">
-        <v>795.5248545467734</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E14" t="n">
-        <v>795.5248545467734</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F14" t="n">
-        <v>795.5248545467734</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G14" t="n">
-        <v>386.7965704396057</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H14" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I14" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>75.88807306732367</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K14" t="n">
-        <v>614.0475741763632</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L14" t="n">
-        <v>1326.638973988601</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M14" t="n">
-        <v>2102.957564980355</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N14" t="n">
-        <v>2856.138581618973</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>3499.769438036078</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P14" t="n">
-        <v>3794.403653366184</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q14" t="n">
-        <v>3794.403653366184</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R14" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>3794.403653366184</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T14" t="n">
-        <v>3794.403653366184</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U14" t="n">
-        <v>3537.343161625694</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V14" t="n">
-        <v>3187.505606962175</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W14" t="n">
-        <v>2803.745306097343</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X14" t="n">
-        <v>2403.101908266296</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y14" t="n">
-        <v>2002.165235214386</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C15" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D15" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E15" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F15" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G15" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H15" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I15" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L15" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M15" t="n">
-        <v>918.8651537618904</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N15" t="n">
-        <v>1792.523245873508</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O15" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P15" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q15" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R15" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S15" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T15" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U15" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V15" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W15" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X15" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y15" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>509.0919652319975</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C16" t="n">
-        <v>509.0919652319975</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D16" t="n">
-        <v>509.0919652319975</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E16" t="n">
-        <v>509.0919652319975</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F16" t="n">
-        <v>509.0919652319975</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G16" t="n">
-        <v>341.8415741575409</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H16" t="n">
-        <v>192.2341189629975</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I16" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>89.97062247253419</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K16" t="n">
-        <v>244.5229501947722</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L16" t="n">
-        <v>504.4200504748327</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M16" t="n">
-        <v>793.684106915326</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N16" t="n">
-        <v>1074.522889309576</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O16" t="n">
-        <v>1334.08349963605</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P16" t="n">
-        <v>1539.758939885663</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q16" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T16" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U16" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V16" t="n">
-        <v>1331.401224627696</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W16" t="n">
-        <v>1052.33156013657</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X16" t="n">
-        <v>813.9876979962535</v>
+        <v>1595.012952997039</v>
       </c>
       <c r="Y16" t="n">
-        <v>589.2519993850182</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2512.458907120301</v>
+        <v>2134.851174492981</v>
       </c>
       <c r="C17" t="n">
-        <v>2139.066799289355</v>
+        <v>1724.726583806251</v>
       </c>
       <c r="D17" t="n">
-        <v>1734.602869382415</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="E17" t="n">
         <v>1320.262653899312</v>
@@ -5543,22 +5545,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>4304.697325272099</v>
+        <v>4337.310772309269</v>
       </c>
       <c r="U17" t="n">
-        <v>4047.636833531609</v>
+        <v>4080.250280568779</v>
       </c>
       <c r="V17" t="n">
-        <v>3697.79927886809</v>
+        <v>3730.41272590526</v>
       </c>
       <c r="W17" t="n">
-        <v>3314.038978003258</v>
+        <v>3346.652425040428</v>
       </c>
       <c r="X17" t="n">
-        <v>2913.395580172211</v>
+        <v>2946.009027209381</v>
       </c>
       <c r="Y17" t="n">
-        <v>2512.458907120301</v>
+        <v>2545.072354157471</v>
       </c>
     </row>
     <row r="18">
@@ -5598,13 +5600,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>754.331869609911</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M18" t="n">
-        <v>1597.308950304478</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N18" t="n">
-        <v>1597.308950304478</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O18" t="n">
         <v>2139.732893541123</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.2436976906228</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C19" t="n">
-        <v>93.2436976906228</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D19" t="n">
-        <v>93.2436976906228</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E19" t="n">
-        <v>93.2436976906228</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F19" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G19" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H19" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5701,22 +5703,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1383.093855288175</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U19" t="n">
-        <v>1100.295707834299</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V19" t="n">
-        <v>826.4099627738212</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W19" t="n">
-        <v>547.3402982826956</v>
+        <v>1343.572929820347</v>
       </c>
       <c r="X19" t="n">
-        <v>308.996436142379</v>
+        <v>1343.572929820347</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.2436976906228</v>
+        <v>1343.572929820347</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2502.881125286859</v>
+        <v>2494.579294402201</v>
       </c>
       <c r="C20" t="n">
-        <v>2139.066799289355</v>
+        <v>2084.454703715471</v>
       </c>
       <c r="D20" t="n">
-        <v>1734.602869382415</v>
+        <v>1679.990773808531</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>1265.650558325428</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>844.6201462791155</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>435.8918621719477</v>
       </c>
       <c r="H20" t="n">
-        <v>179.5954603735497</v>
+        <v>124.9833647996657</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5777,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>4090.140845814479</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3706.380544949648</v>
       </c>
       <c r="X20" t="n">
-        <v>3314.038978003258</v>
+        <v>3305.7371471186</v>
       </c>
       <c r="Y20" t="n">
-        <v>2913.102304951348</v>
+        <v>2904.80047406669</v>
       </c>
     </row>
     <row r="21">
@@ -5835,13 +5837,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M21" t="n">
-        <v>562.1177108836107</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N21" t="n">
-        <v>1435.775802995229</v>
+        <v>1627.989961721529</v>
       </c>
       <c r="O21" t="n">
         <v>2139.732893541123</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>886.5906088412762</v>
+        <v>1015.327156917303</v>
       </c>
       <c r="C22" t="n">
-        <v>715.4972364029927</v>
+        <v>844.2337844790193</v>
       </c>
       <c r="D22" t="n">
-        <v>556.0025917259027</v>
+        <v>684.7391398019292</v>
       </c>
       <c r="E22" t="n">
-        <v>395.0917765942222</v>
+        <v>523.8283246702488</v>
       </c>
       <c r="F22" t="n">
-        <v>230.4606507048134</v>
+        <v>359.19719878084</v>
       </c>
       <c r="G22" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H22" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5932,28 +5934,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U22" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V22" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W22" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X22" t="n">
-        <v>1299.026013846556</v>
+        <v>1427.762561922582</v>
       </c>
       <c r="Y22" t="n">
-        <v>1074.290315235321</v>
+        <v>1203.026863311347</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2324.444211508952</v>
       </c>
       <c r="C23" t="n">
-        <v>1692.113136769081</v>
+        <v>1914.319620822223</v>
       </c>
       <c r="D23" t="n">
-        <v>1320.262653899312</v>
+        <v>1509.855690915283</v>
       </c>
       <c r="E23" t="n">
-        <v>1320.262653899312</v>
+        <v>1095.51547543218</v>
       </c>
       <c r="F23" t="n">
-        <v>899.2322418529996</v>
+        <v>674.4850633858673</v>
       </c>
       <c r="G23" t="n">
-        <v>490.5039577458317</v>
+        <v>265.7567792786995</v>
       </c>
       <c r="H23" t="n">
         <v>179.5954603735497</v>
@@ -6017,22 +6019,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3536.245462056399</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>3135.602064225352</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2734.665391173442</v>
       </c>
     </row>
     <row r="24">
@@ -6121,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.2436976906228</v>
+        <v>423.8317148059963</v>
       </c>
       <c r="C25" t="n">
-        <v>93.2436976906228</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="D25" t="n">
         <v>93.2436976906228</v>
@@ -6175,22 +6177,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>1392.076815447654</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U25" t="n">
-        <v>1109.278667993779</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V25" t="n">
-        <v>835.3929229333004</v>
+        <v>1353.680646442718</v>
       </c>
       <c r="W25" t="n">
-        <v>556.3232584421747</v>
+        <v>1074.610981951593</v>
       </c>
       <c r="X25" t="n">
-        <v>317.9793963018581</v>
+        <v>836.267119811276</v>
       </c>
       <c r="Y25" t="n">
-        <v>93.2436976906228</v>
+        <v>611.5314212000407</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C26" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D26" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E26" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F26" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G26" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H26" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6251,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T26" t="n">
-        <v>4526.90380932524</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U26" t="n">
-        <v>4494.590496051882</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V26" t="n">
-        <v>4144.752941388363</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W26" t="n">
-        <v>3760.992640523532</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X26" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y26" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="27">
@@ -6309,13 +6311,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>592.7987223006619</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="N27" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O27" t="n">
         <v>2139.732893541123</v>
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2238.282892603803</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C29" t="n">
-        <v>1828.158301917073</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D29" t="n">
-        <v>1423.694372010133</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E29" t="n">
-        <v>1009.35415652703</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F29" t="n">
-        <v>588.3237444807176</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G29" t="n">
-        <v>179.5954603735497</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H29" t="n">
         <v>179.5954603735497</v>
@@ -6491,22 +6493,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T29" t="n">
-        <v>4440.742490420091</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U29" t="n">
-        <v>4183.681998679601</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V29" t="n">
-        <v>3833.844444016082</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W29" t="n">
-        <v>3450.08414315125</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X29" t="n">
-        <v>3049.440745320202</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y29" t="n">
-        <v>2648.504072268292</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="30">
@@ -6543,19 +6545,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M30" t="n">
-        <v>936.2207783851894</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N30" t="n">
-        <v>1809.878870496807</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P30" t="n">
         <v>2139.732893541123</v>
@@ -6643,28 +6645,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U31" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V31" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W31" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X31" t="n">
-        <v>1350.978107866783</v>
+        <v>1595.012952997039</v>
       </c>
       <c r="Y31" t="n">
-        <v>1350.978107866783</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2462.839627293158</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C32" t="n">
-        <v>2052.715036606428</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D32" t="n">
-        <v>1648.251106699488</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E32" t="n">
-        <v>1233.910891216385</v>
+        <v>1230.796550638079</v>
       </c>
       <c r="F32" t="n">
-        <v>812.8804791700727</v>
+        <v>809.7661385917668</v>
       </c>
       <c r="G32" t="n">
-        <v>404.1521950629048</v>
+        <v>401.0378544845989</v>
       </c>
       <c r="H32" t="n">
         <v>93.2436976906228</v>
@@ -6725,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4630.445217422097</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T32" t="n">
-        <v>4408.238733368956</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U32" t="n">
-        <v>4408.238733368956</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V32" t="n">
-        <v>4058.401178705436</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W32" t="n">
-        <v>3674.640877840605</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X32" t="n">
-        <v>3273.997480009557</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y32" t="n">
-        <v>2873.060806957647</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C33" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D33" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E33" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F33" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G33" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H33" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I33" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K33" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L33" t="n">
-        <v>2615.69568868064</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M33" t="n">
-        <v>3084.569701873628</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N33" t="n">
-        <v>3958.227793985246</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O33" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P33" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q33" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R33" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S33" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T33" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U33" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V33" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W33" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X33" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y33" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>403.7619680168467</v>
+        <v>359.19719878084</v>
       </c>
       <c r="C34" t="n">
-        <v>403.7619680168467</v>
+        <v>359.19719878084</v>
       </c>
       <c r="D34" t="n">
-        <v>403.7619680168467</v>
+        <v>359.19719878084</v>
       </c>
       <c r="E34" t="n">
-        <v>242.8511528851661</v>
+        <v>359.19719878084</v>
       </c>
       <c r="F34" t="n">
-        <v>242.8511528851661</v>
+        <v>359.19719878084</v>
       </c>
       <c r="G34" t="n">
-        <v>242.8511528851661</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H34" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
@@ -6883,25 +6885,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>1203.973642102165</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U34" t="n">
-        <v>921.1754946482889</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V34" t="n">
-        <v>921.1754946482889</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W34" t="n">
-        <v>642.1058301571633</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X34" t="n">
-        <v>403.7619680168467</v>
+        <v>359.19719878084</v>
       </c>
       <c r="Y34" t="n">
-        <v>403.7619680168467</v>
+        <v>359.19719878084</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2102.237727455811</v>
+        <v>2512.458907120301</v>
       </c>
       <c r="C35" t="n">
-        <v>1692.113136769081</v>
+        <v>2102.334316433571</v>
       </c>
       <c r="D35" t="n">
-        <v>1287.649206862142</v>
+        <v>1697.870386526632</v>
       </c>
       <c r="E35" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F35" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G35" t="n">
-        <v>179.5954603735497</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H35" t="n">
         <v>179.5954603735497</v>
@@ -7020,16 +7022,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>704.368908940975</v>
       </c>
       <c r="M36" t="n">
-        <v>936.2207783851894</v>
+        <v>704.368908940975</v>
       </c>
       <c r="N36" t="n">
-        <v>1809.878870496807</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P36" t="n">
         <v>2139.732893541123</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3303.879360348573</v>
+        <v>1124.934470981593</v>
       </c>
       <c r="C37" t="n">
-        <v>3132.785987910289</v>
+        <v>953.8410985433093</v>
       </c>
       <c r="D37" t="n">
-        <v>3132.785987910289</v>
+        <v>794.3464538662192</v>
       </c>
       <c r="E37" t="n">
-        <v>3132.785987910289</v>
+        <v>633.4356387345388</v>
       </c>
       <c r="F37" t="n">
-        <v>3132.785987910289</v>
+        <v>468.80451284513</v>
       </c>
       <c r="G37" t="n">
-        <v>3132.785987910289</v>
+        <v>301.5541217706734</v>
       </c>
       <c r="H37" t="n">
-        <v>3132.785987910289</v>
+        <v>151.9466665761301</v>
       </c>
       <c r="I37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K37" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L37" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M37" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N37" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O37" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P37" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>4662.18488453114</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S37" t="n">
-        <v>4662.18488453114</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T37" t="n">
-        <v>4516.526439439171</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U37" t="n">
-        <v>4233.728291985295</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="V37" t="n">
-        <v>4233.728291985295</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="W37" t="n">
-        <v>3954.658627494169</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="X37" t="n">
-        <v>3716.314765353853</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="Y37" t="n">
-        <v>3491.579066742617</v>
+        <v>1312.634177375637</v>
       </c>
     </row>
     <row r="38">
@@ -7172,10 +7174,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7208,16 +7210,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V38" t="n">
-        <v>3760.992640523532</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W38" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X38" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y38" t="n">
-        <v>2959.412569640574</v>
+        <v>2549.191389976085</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4150.971659063151</v>
+        <v>3458.450207833939</v>
       </c>
       <c r="C40" t="n">
-        <v>3979.878286624867</v>
+        <v>3287.356835395656</v>
       </c>
       <c r="D40" t="n">
-        <v>3820.383641947777</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E40" t="n">
-        <v>3659.472826816097</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F40" t="n">
-        <v>3494.841700926688</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G40" t="n">
-        <v>3327.591309852231</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H40" t="n">
-        <v>3177.983854657688</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I40" t="n">
         <v>3132.785987910289</v>
@@ -7354,28 +7356,28 @@
         <v>4662.18488453114</v>
       </c>
       <c r="R40" t="n">
-        <v>4576.912166206539</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S40" t="n">
-        <v>4390.520398086449</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T40" t="n">
-        <v>4150.971659063151</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U40" t="n">
-        <v>4150.971659063151</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="V40" t="n">
-        <v>4150.971659063151</v>
+        <v>4388.299139470661</v>
       </c>
       <c r="W40" t="n">
-        <v>4150.971659063151</v>
+        <v>4109.229474979536</v>
       </c>
       <c r="X40" t="n">
-        <v>4150.971659063151</v>
+        <v>3870.885612839219</v>
       </c>
       <c r="Y40" t="n">
-        <v>4150.971659063151</v>
+        <v>3646.149914227984</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1234.456496290856</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C41" t="n">
-        <v>824.3319056041261</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D41" t="n">
-        <v>419.8679756971866</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E41" t="n">
-        <v>386.7965704396057</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F41" t="n">
-        <v>386.7965704396057</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G41" t="n">
-        <v>386.7965704396057</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H41" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I41" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>329.9656427078645</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>868.125143816904</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
-        <v>1580.716543629142</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M41" t="n">
-        <v>2357.035134620896</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N41" t="n">
-        <v>3110.216151259514</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O41" t="n">
-        <v>3753.847007676619</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P41" t="n">
-        <v>3753.847007676619</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q41" t="n">
-        <v>3753.847007676619</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R41" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>3659.122578160285</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T41" t="n">
-        <v>3436.916094107144</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U41" t="n">
-        <v>3179.855602366654</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V41" t="n">
-        <v>2830.018047703134</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W41" t="n">
-        <v>2446.257746838303</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X41" t="n">
-        <v>2045.614349007255</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y41" t="n">
-        <v>1644.677675955345</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C42" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D42" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E42" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F42" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G42" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H42" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I42" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L42" t="n">
-        <v>736.976244986612</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M42" t="n">
-        <v>1418.420178371929</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N42" t="n">
-        <v>1418.420178371929</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O42" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P42" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q42" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R42" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S42" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T42" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U42" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V42" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W42" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X42" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y42" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3354.338607046471</v>
+        <v>3175.652060380064</v>
       </c>
       <c r="C43" t="n">
-        <v>3183.245234608188</v>
+        <v>3175.652060380064</v>
       </c>
       <c r="D43" t="n">
-        <v>3023.750589931098</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E43" t="n">
-        <v>2862.839774799417</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F43" t="n">
-        <v>2698.208648910008</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G43" t="n">
-        <v>2530.958257835552</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H43" t="n">
-        <v>2381.350802641008</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I43" t="n">
-        <v>2265.004756745334</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J43" t="n">
-        <v>2279.087306150545</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K43" t="n">
-        <v>2433.639633872783</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L43" t="n">
-        <v>2693.536734152843</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M43" t="n">
-        <v>2982.800790593336</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N43" t="n">
-        <v>3263.639572987587</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O43" t="n">
-        <v>3523.200183314061</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P43" t="n">
-        <v>3728.875623563673</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q43" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R43" t="n">
-        <v>3766.774012051751</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S43" t="n">
-        <v>3766.774012051751</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T43" t="n">
-        <v>3766.774012051751</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U43" t="n">
-        <v>3766.774012051751</v>
+        <v>4379.386737077264</v>
       </c>
       <c r="V43" t="n">
-        <v>3766.774012051751</v>
+        <v>4105.500992016786</v>
       </c>
       <c r="W43" t="n">
-        <v>3766.774012051751</v>
+        <v>3826.43132752566</v>
       </c>
       <c r="X43" t="n">
-        <v>3766.774012051751</v>
+        <v>3588.087465385343</v>
       </c>
       <c r="Y43" t="n">
-        <v>3542.038313440516</v>
+        <v>3363.351766774108</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2110.805353306473</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C44" t="n">
-        <v>1700.680762619743</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D44" t="n">
-        <v>1296.216832712804</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E44" t="n">
-        <v>881.8766172297003</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F44" t="n">
-        <v>881.8766172297003</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G44" t="n">
-        <v>473.1483331225325</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H44" t="n">
-        <v>162.2398357502505</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I44" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>75.88807306732367</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>379.5250915873173</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L44" t="n">
-        <v>1092.116491399555</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>1868.435082391309</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>2621.616099029927</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>3265.246955447032</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>3794.403653366184</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>3794.403653366184</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>3659.122578160285</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>3436.916094107144</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>3271.800760686392</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V44" t="n">
-        <v>2921.963206022873</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W44" t="n">
-        <v>2921.963206022873</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X44" t="n">
-        <v>2921.963206022873</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y44" t="n">
-        <v>2521.026532970963</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2426.745299402218</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>2292.750228151164</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>2175.853070370556</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>2055.360254362884</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>1946.400374545389</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>1839.410261859728</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>1768.663048895444</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>1747.914457515684</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>1940.727315078317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K45" t="n">
-        <v>2077.768480559999</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L45" t="n">
-        <v>2077.768480559999</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M45" t="n">
-        <v>2920.745561254566</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N45" t="n">
-        <v>3794.403653366184</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O45" t="n">
-        <v>3794.403653366184</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P45" t="n">
-        <v>3794.403653366184</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q45" t="n">
-        <v>3794.403653366184</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
-        <v>3794.403653366184</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>3686.413643480493</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>3527.071779667501</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>3329.72096880572</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>3116.009441798753</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>2902.776273535082</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>2726.450291673975</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>2567.048332037805</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>675.4380380514518</v>
+        <v>3175.755121771036</v>
       </c>
       <c r="C46" t="n">
-        <v>504.3446656131683</v>
+        <v>3175.755121771036</v>
       </c>
       <c r="D46" t="n">
-        <v>344.8500209360784</v>
+        <v>3175.755121771036</v>
       </c>
       <c r="E46" t="n">
-        <v>243.1384641417803</v>
+        <v>3175.755121771036</v>
       </c>
       <c r="F46" t="n">
-        <v>243.1384641417803</v>
+        <v>3175.755121771036</v>
       </c>
       <c r="G46" t="n">
-        <v>75.88807306732367</v>
+        <v>3175.755121771036</v>
       </c>
       <c r="H46" t="n">
-        <v>75.88807306732367</v>
+        <v>3175.755121771036</v>
       </c>
       <c r="I46" t="n">
-        <v>75.88807306732367</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J46" t="n">
-        <v>89.97062247253419</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K46" t="n">
-        <v>244.5229501947722</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L46" t="n">
-        <v>504.4200504748327</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M46" t="n">
-        <v>793.684106915326</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N46" t="n">
-        <v>1074.522889309576</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O46" t="n">
-        <v>1334.08349963605</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P46" t="n">
-        <v>1539.758939885663</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q46" t="n">
-        <v>1605.286969688174</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R46" t="n">
-        <v>1605.286969688174</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S46" t="n">
-        <v>1605.286969688174</v>
+        <v>4475.79311641105</v>
       </c>
       <c r="T46" t="n">
-        <v>1605.286969688174</v>
+        <v>4236.244377387751</v>
       </c>
       <c r="U46" t="n">
-        <v>1605.286969688174</v>
+        <v>3953.446229933875</v>
       </c>
       <c r="V46" t="n">
-        <v>1605.286969688174</v>
+        <v>3679.560484873397</v>
       </c>
       <c r="W46" t="n">
-        <v>1326.217305197048</v>
+        <v>3400.490820382272</v>
       </c>
       <c r="X46" t="n">
-        <v>1087.873443056732</v>
+        <v>3400.490820382272</v>
       </c>
       <c r="Y46" t="n">
-        <v>863.1377444454962</v>
+        <v>3175.755121771036</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>531.0119939709983</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>534.7878950544006</v>
       </c>
       <c r="O2" t="n">
         <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
@@ -8061,10 +8063,10 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
         <v>575.2569637637755</v>
@@ -8216,22 +8218,22 @@
         <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>535.0653799235644</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>535.5249675786654</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
@@ -8292,31 +8294,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>230.7561945635728</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>579.627854108443</v>
+        <v>98.1240166537967</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8453,28 +8455,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>611.1999600432426</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328704</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
-        <v>228.7885022587807</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>354.5090417861859</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,22 +8534,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637755</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>390.9373608629447</v>
       </c>
       <c r="P9" t="n">
-        <v>94.81936791818303</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
@@ -8687,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
@@ -8705,13 +8707,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>391.2596817961424</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,13 +8771,13 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>674.8624769205911</v>
+        <v>751.9737060727139</v>
       </c>
       <c r="N12" t="n">
         <v>935.6763147186165</v>
@@ -8784,13 +8786,13 @@
         <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K14" t="n">
         <v>632.7318453389136</v>
@@ -8942,13 +8944,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>391.2596817961424</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9012,13 +9014,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N15" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
         <v>54.25963500280375</v>
@@ -9246,16 +9248,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N18" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>605.6544519663084</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
@@ -9483,16 +9485,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>574.6635313430244</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
@@ -9957,16 +9959,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>560.7155587704844</v>
       </c>
       <c r="M27" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P27" t="n">
         <v>54.25963500280375</v>
@@ -10191,22 +10193,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>390.9373608629449</v>
+        <v>429.3564034215989</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
         <v>56.69261850483872</v>
@@ -10431,13 +10433,13 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>531.174398074769</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>741.5205988334646</v>
       </c>
       <c r="O33" t="n">
         <v>768.8192472281761</v>
@@ -10668,19 +10670,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>673.412716993023</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O36" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
         <v>56.69261850483872</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
@@ -10844,7 +10846,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>329.967601071228</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11075,10 +11077,10 @@
         <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
         <v>128.2784515920617</v>
@@ -11142,16 +11144,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>745.8914891781319</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N42" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P42" t="n">
         <v>54.25963500280375</v>
@@ -11294,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>395.8404487843218</v>
+        <v>632.7318453389137</v>
       </c>
       <c r="L44" t="n">
         <v>815.2746908024792</v>
@@ -11315,10 +11317,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,10 +11375,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>194.2512024630822</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
         <v>56.11452381084905</v>
@@ -11388,7 +11390,7 @@
         <v>935.6763147186165</v>
       </c>
       <c r="O45" t="n">
-        <v>57.751479</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P45" t="n">
         <v>54.25963500280375</v>
@@ -23270,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>282.7152484271188</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23416,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.577887163712</v>
@@ -23461,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>192.5167938583583</v>
+        <v>56.01419322081091</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23495,22 +23497,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>17.98762639464121</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>49.19646844041392</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
         <v>85.48824505609757</v>
@@ -23543,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23650,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>106.4642755186135</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23710,13 +23712,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23729,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>36.36515802722619</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23783,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>32.28731256679822</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>26.43728131980203</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,22 +23943,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.893130557884348</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23969,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>45.84716204233354</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23987,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>54.06597461814515</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24032,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>29.73310367966332</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
         <v>184.5278504388888</v>
@@ -24190,7 +24192,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>43.02919145391172</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24209,10 +24211,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>32.28731256679833</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24221,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>222.4997066824609</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24257,7 +24259,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
@@ -24415,13 +24417,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>8.893130557884461</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>4.874559219806031</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24461,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>222.4997066824603</v>
+        <v>223.0676163851326</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24695,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24731,10 +24733,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0.756449042671278</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.10615505383078</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
@@ -24901,10 +24903,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24932,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>3.08319717252283</v>
       </c>
       <c r="I32" t="n">
         <v>85.48824505609757</v>
@@ -24965,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>102.5059940158878</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25081,7 +25083,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
         <v>162.9848146305146</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,22 +25125,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>7.198839384738818</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>49.69875501207648</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25160,16 +25162,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>36.36515802722585</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>57.06664624006491</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>92.95139099201558</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25448,16 +25450,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>62.56142803888758</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>36.36515802722602</v>
       </c>
     </row>
     <row r="39">
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>4.8745592198064</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>70.43669735679293</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25634,13 +25636,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>377.4561221232672</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>115.4622864852425</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.0666462400659</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
         <v>184.5278504388888</v>
@@ -25840,16 +25842,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25874,7 +25876,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25919,16 +25921,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>91.02570673654097</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>356.9958808389729</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>58.60726575400862</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>72.64314291457782</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,22 +26073,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>677474.6739449722</v>
+        <v>681833.3354708112</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>538105.2098977799</v>
+        <v>608507.0142538614</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>538105.2098977799</v>
+        <v>608507.0142538613</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>608507.0142538614</v>
+        <v>608507.0142538615</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>608507.0142538615</v>
+        <v>608507.0142538614</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>608507.0142538613</v>
+        <v>608507.0142538614</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>608507.0142538613</v>
+        <v>608507.0142538615</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>608507.0142538615</v>
+        <v>608507.0142538614</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>608507.0142538612</v>
+        <v>608507.0142538615</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>538105.2098977799</v>
+        <v>608507.0142538615</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>538105.2098977799</v>
+        <v>608507.0142538614</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472358.9397941252</v>
+        <v>472358.939794125</v>
       </c>
       <c r="C2" t="n">
         <v>472358.9397941252</v>
@@ -26320,25 +26322,25 @@
         <v>472358.9397941252</v>
       </c>
       <c r="E2" t="n">
-        <v>371403.2867899023</v>
+        <v>419990.567925886</v>
       </c>
       <c r="F2" t="n">
-        <v>371403.2867899023</v>
+        <v>419990.5679258859</v>
       </c>
       <c r="G2" t="n">
-        <v>419990.5679258858</v>
+        <v>419990.5679258859</v>
       </c>
       <c r="H2" t="n">
         <v>419990.5679258859</v>
       </c>
       <c r="I2" t="n">
+        <v>419990.5679258858</v>
+      </c>
+      <c r="J2" t="n">
+        <v>419990.5679258857</v>
+      </c>
+      <c r="K2" t="n">
         <v>419990.5679258859</v>
-      </c>
-      <c r="J2" t="n">
-        <v>419990.567925886</v>
-      </c>
-      <c r="K2" t="n">
-        <v>419990.567925886</v>
       </c>
       <c r="L2" t="n">
         <v>419990.567925886</v>
@@ -26347,13 +26349,13 @@
         <v>419990.567925886</v>
       </c>
       <c r="N2" t="n">
+        <v>419990.5679258858</v>
+      </c>
+      <c r="O2" t="n">
         <v>419990.567925886</v>
       </c>
-      <c r="O2" t="n">
-        <v>371403.2867899021</v>
-      </c>
       <c r="P2" t="n">
-        <v>371403.2867899022</v>
+        <v>419990.5679258861</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>171827.4689100685</v>
       </c>
       <c r="E3" t="n">
-        <v>127354.6667897506</v>
+        <v>26968.95418093424</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>59461.45468596174</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>139999.3108647527</v>
       </c>
       <c r="M3" t="n">
-        <v>106294.8120178748</v>
+        <v>22509.26477404744</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,13 +26423,13 @@
         <v>164775.2337200961</v>
       </c>
       <c r="D4" t="n">
-        <v>164775.2337200961</v>
+        <v>71864.46850972365</v>
       </c>
       <c r="E4" t="n">
-        <v>13653.36588409532</v>
+        <v>15465.37373706398</v>
       </c>
       <c r="F4" t="n">
-        <v>13653.36588409532</v>
+        <v>15465.37373706398</v>
       </c>
       <c r="G4" t="n">
         <v>15465.37373706398</v>
@@ -26454,10 +26456,10 @@
         <v>15465.37373706398</v>
       </c>
       <c r="O4" t="n">
-        <v>13653.36588409532</v>
+        <v>15465.37373706398</v>
       </c>
       <c r="P4" t="n">
-        <v>13653.36588409532</v>
+        <v>15465.37373706398</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26475,13 @@
         <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849755</v>
+        <v>99001.07135520026</v>
       </c>
       <c r="E5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="F5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>67259.13110241754</v>
+        <v>67259.13110241736</v>
       </c>
       <c r="C6" t="n">
-        <v>242214.6409955315</v>
+        <v>242214.6409955316</v>
       </c>
       <c r="D6" t="n">
-        <v>242214.6409955315</v>
+        <v>129665.9310191328</v>
       </c>
       <c r="E6" t="n">
-        <v>172720.3185848903</v>
+        <v>306691.0297630145</v>
       </c>
       <c r="F6" t="n">
-        <v>300074.985374641</v>
+        <v>333659.9839439486</v>
       </c>
       <c r="G6" t="n">
-        <v>274198.5292579868</v>
+        <v>333659.9839439486</v>
       </c>
       <c r="H6" t="n">
         <v>333659.9839439486</v>
@@ -26543,25 +26545,25 @@
         <v>333659.9839439486</v>
       </c>
       <c r="J6" t="n">
-        <v>197065.1831380537</v>
+        <v>197065.1831380535</v>
       </c>
       <c r="K6" t="n">
+        <v>333659.9839439486</v>
+      </c>
+      <c r="L6" t="n">
+        <v>193660.673079196</v>
+      </c>
+      <c r="M6" t="n">
+        <v>311150.7191699013</v>
+      </c>
+      <c r="N6" t="n">
+        <v>333659.9839439486</v>
+      </c>
+      <c r="O6" t="n">
+        <v>333659.9839439487</v>
+      </c>
+      <c r="P6" t="n">
         <v>333659.9839439488</v>
-      </c>
-      <c r="L6" t="n">
-        <v>333659.9839439487</v>
-      </c>
-      <c r="M6" t="n">
-        <v>227365.171926074</v>
-      </c>
-      <c r="N6" t="n">
-        <v>333659.9839439487</v>
-      </c>
-      <c r="O6" t="n">
-        <v>300074.9853746408</v>
-      </c>
-      <c r="P6" t="n">
-        <v>300074.9853746409</v>
       </c>
     </row>
   </sheetData>
@@ -26793,13 +26795,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700256</v>
+        <v>1075.22156834211</v>
       </c>
       <c r="E4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="F4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -27015,16 +27017,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="E4" t="n">
-        <v>426.5373429715204</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>216.945307791239</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27039,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>426.5373429715204</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,16 +27263,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>426.5373429715204</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>216.945307791239</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>269.3220725596216</v>
+        <v>12.21906234721837</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,19 +27432,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -27555,7 +27557,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>124.0757159946018</v>
+        <v>1.562004291913468</v>
       </c>
     </row>
     <row r="5">
@@ -27616,16 +27618,16 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>56.8502050575899</v>
+        <v>11.48287933845643</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
@@ -27682,7 +27684,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -27777,22 +27779,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>36.45061280844926</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>56.6474894042201</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>312.0113548412616</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>184.6134679555875</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28056,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28074,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>55.35263051300481</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.89313055788466</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -34699,22 +34701,22 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>441.8756042977813</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="O2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
@@ -34781,10 +34783,10 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>522.0635703700256</v>
@@ -34936,22 +34938,22 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
       <c r="N5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>441.8756042977812</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>179.3869557635728</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
+        <v>40.55973291537929</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35173,28 +35175,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>522.0635703700256</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
-        <v>522.0635703700256</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>522.0635703700256</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
-        <v>135.5987266329976</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>264.4752373870339</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N9" t="n">
-        <v>522.0635703700256</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700256</v>
+        <v>333.1858818629447</v>
       </c>
       <c r="P9" t="n">
-        <v>40.55973291537929</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
@@ -35425,13 +35427,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>297.6103185152583</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,13 +35491,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>617.2981931821737</v>
+        <v>694.4094223342964</v>
       </c>
       <c r="N12" t="n">
         <v>882.4829213248665</v>
@@ -35504,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K14" t="n">
         <v>543.5954556656965</v>
@@ -35662,13 +35664,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>297.6103185152583</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,13 +35734,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N15" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35966,16 +35968,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>547.9029729663084</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36203,16 +36205,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>516.9120523430244</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36677,16 +36679,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="M27" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36911,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>333.1858818629449</v>
+        <v>371.6049244215989</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37151,13 +37153,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>473.6101143363516</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>688.3272054397147</v>
       </c>
       <c r="O33" t="n">
         <v>711.0677682281761</v>
@@ -37388,19 +37390,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>617.2981931821739</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O36" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K38" t="n">
         <v>543.5954556656965</v>
@@ -37564,7 +37566,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.64400973792</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37795,10 +37797,10 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
         <v>40.9663087773382</v>
@@ -37862,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>688.3272054397145</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38014,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>306.7040591111047</v>
+        <v>543.5954556656966</v>
       </c>
       <c r="L44" t="n">
         <v>719.7892927396343</v>
@@ -38035,10 +38037,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>138.4254196784668</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38108,7 +38110,7 @@
         <v>882.4829213248665</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2145642.015304686</v>
+        <v>2144329.369849106</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5301029.811029741</v>
+        <v>5301029.81102974</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2166967.111789206</v>
+        <v>2166967.111789207</v>
       </c>
     </row>
     <row r="9">
@@ -667,7 +667,7 @@
         <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>397.9777509810539</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
         <v>16.8201079258493</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>91.33795155681844</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>274.4646279025866</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.9263373332095</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -901,13 +901,13 @@
         <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>388.9364112694136</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
         <v>404.6410012660961</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>65.32793736708535</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -1062,10 +1062,10 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>120.0770670766404</v>
       </c>
       <c r="F7" t="n">
-        <v>126.5342018220654</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
         <v>165.577887163712</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.5280424764068</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>161.7257111612966</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>42.43741174507642</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
@@ -1356,10 +1356,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>180.6077930059086</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1384,13 +1384,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>253.7334377804137</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -1530,19 +1530,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>70.07178186912493</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>220.2647746254034</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -1615,7 +1615,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>361.0003448878583</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
@@ -1624,10 +1624,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>123.8394724344234</v>
       </c>
       <c r="U14" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>80.14874043258274</v>
       </c>
       <c r="H16" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -1852,7 +1852,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
@@ -1861,7 +1861,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>85.48824505609757</v>
@@ -1897,13 +1897,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>187.6971066458115</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>211.6544656203724</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>159.3854280103019</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
@@ -2013,16 +2013,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>12.53729877970202</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2089,7 +2089,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
@@ -2101,7 +2101,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>31.42227043795242</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>314.0518665500859</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
@@ -2241,13 +2241,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
@@ -2259,7 +2259,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>129.6906520671965</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2298,13 +2298,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>192.9312320650017</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -2335,7 +2335,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>85.2997057160983</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -2371,7 +2371,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
         <v>254.489886823085</v>
@@ -2386,7 +2386,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>262.2425928248792</v>
       </c>
     </row>
     <row r="24">
@@ -2478,10 +2478,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>266.2723283900672</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>187.1969090828031</v>
       </c>
     </row>
     <row r="26">
@@ -2566,13 +2566,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>367.6236394854355</v>
       </c>
       <c r="G26" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>31.42227043795236</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>159.3854280103019</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>188.3136338785363</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>183.0513514827122</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
@@ -2812,7 +2812,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2952,13 +2952,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>162.9848146305146</v>
@@ -2967,10 +2967,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>119.5896293143208</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -3046,7 +3046,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>304.7162152260364</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
         <v>254.489886823085</v>
@@ -3094,7 +3094,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>173.5693474676043</v>
       </c>
       <c r="Y32" t="n">
         <v>396.9273063213908</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>64.02325885895608</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>186.261668506837</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>269.1075062414814</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
@@ -3274,7 +3274,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>373.8316553010464</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
@@ -3286,7 +3286,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>254.489886823085</v>
@@ -3426,25 +3426,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>58.1159391966522</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>169.2441688958696</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
         <v>406.0233447798626</v>
@@ -3520,10 +3520,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>84.73179601342665</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>219.9844192126098</v>
@@ -3571,7 +3571,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>360.5621482941648</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>153.0251390105127</v>
+        <v>79.15714704382091</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
@@ -3760,7 +3760,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>251.4066896505621</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3805,10 +3805,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>351.080144279057</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>42.43741174507654</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>59.0935936556664</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3994,7 +3994,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>205.2934183826711</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4033,13 +4033,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>22.92681701721022</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>42.53944252213928</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>76.43104772188485</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
@@ -4194,13 +4194,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>869.2086745340351</v>
+        <v>881.5511617534477</v>
       </c>
       <c r="C2" t="n">
-        <v>863.1244878877093</v>
+        <v>875.4669751071218</v>
       </c>
       <c r="D2" t="n">
-        <v>862.7009620211738</v>
+        <v>875.0434492405864</v>
       </c>
       <c r="E2" t="n">
         <v>460.703233757483</v>
@@ -4330,16 +4330,16 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L2" t="n">
-        <v>295.9505570973564</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M2" t="n">
-        <v>812.7934917636817</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N2" t="n">
         <v>1250.250340018485</v>
@@ -4357,25 +4357,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>1866.047797426961</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U2" t="n">
-        <v>1608.987305686471</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V2" t="n">
-        <v>1259.149751022952</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="W2" t="n">
-        <v>875.3894501581206</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="X2" t="n">
-        <v>875.3894501581206</v>
+        <v>1288.668610429443</v>
       </c>
       <c r="Y2" t="n">
-        <v>875.3894501581206</v>
+        <v>887.7319373775331</v>
       </c>
     </row>
     <row r="3">
@@ -4412,25 +4412,25 @@
         <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>690.3841994575342</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="L3" t="n">
-        <v>1207.22713412386</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="M3" t="n">
-        <v>1207.22713412386</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N3" t="n">
-        <v>1724.070068790185</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="O3" t="n">
-        <v>1724.070068790185</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P3" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.76508562960205</v>
+        <v>643.1477172234552</v>
       </c>
       <c r="C4" t="n">
-        <v>41.76508562960205</v>
+        <v>643.1477172234552</v>
       </c>
       <c r="D4" t="n">
-        <v>41.76508562960205</v>
+        <v>483.6530725463652</v>
       </c>
       <c r="E4" t="n">
-        <v>41.76508562960205</v>
+        <v>322.7422574146847</v>
       </c>
       <c r="F4" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="G4" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H4" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U4" t="n">
-        <v>777.1526093285881</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V4" t="n">
-        <v>503.2668642681101</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W4" t="n">
-        <v>503.2668642681101</v>
+        <v>1293.926984369051</v>
       </c>
       <c r="X4" t="n">
-        <v>264.9230021277934</v>
+        <v>1055.583122228735</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.76508562960205</v>
+        <v>830.8474236174995</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2082.073505856017</v>
+        <v>881.5511617534477</v>
       </c>
       <c r="C5" t="n">
-        <v>2075.989319209691</v>
+        <v>875.4669751071218</v>
       </c>
       <c r="D5" t="n">
-        <v>1683.124257321394</v>
+        <v>875.0434492405864</v>
       </c>
       <c r="E5" t="n">
-        <v>1268.784041838291</v>
+        <v>864.7436377978871</v>
       </c>
       <c r="F5" t="n">
         <v>847.7536297919787</v>
@@ -4579,16 +4579,16 @@
         <v>1329.636426430007</v>
       </c>
       <c r="N5" t="n">
-        <v>1329.636426430007</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="O5" t="n">
-        <v>1329.636426430007</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P5" t="n">
-        <v>1767.09327468481</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
@@ -4600,19 +4600,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>2022.266465957794</v>
       </c>
       <c r="V5" t="n">
-        <v>2088.254281480102</v>
+        <v>1672.428911294274</v>
       </c>
       <c r="W5" t="n">
-        <v>2088.254281480102</v>
+        <v>1288.668610429443</v>
       </c>
       <c r="X5" t="n">
-        <v>2088.254281480102</v>
+        <v>1288.668610429443</v>
       </c>
       <c r="Y5" t="n">
-        <v>2088.254281480102</v>
+        <v>887.7319373775331</v>
       </c>
     </row>
     <row r="6">
@@ -4649,25 +4649,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>497.5713418949007</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L6" t="n">
-        <v>1014.414276561226</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M6" t="n">
-        <v>1054.568412147451</v>
+        <v>158.3214934345126</v>
       </c>
       <c r="N6" t="n">
-        <v>1054.568412147451</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="O6" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>923.1867626758396</v>
+        <v>920.3847151048558</v>
       </c>
       <c r="C7" t="n">
-        <v>923.1867626758396</v>
+        <v>920.3847151048558</v>
       </c>
       <c r="D7" t="n">
-        <v>763.6921179987496</v>
+        <v>760.8900704277657</v>
       </c>
       <c r="E7" t="n">
-        <v>602.7813028670691</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F7" t="n">
         <v>474.9689777942758</v>
@@ -4752,25 +4752,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>1110.886469069884</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>1110.886469069884</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X7" t="n">
-        <v>1110.886469069884</v>
+        <v>1332.820120110135</v>
       </c>
       <c r="Y7" t="n">
-        <v>1110.886469069884</v>
+        <v>1108.0844214989</v>
       </c>
     </row>
     <row r="8">
@@ -4804,46 +4804,46 @@
         <v>86.01772546736876</v>
       </c>
       <c r="J8" t="n">
-        <v>86.01772546736876</v>
+        <v>340.2031969351231</v>
       </c>
       <c r="K8" t="n">
-        <v>624.1772265764083</v>
+        <v>878.3626980441626</v>
       </c>
       <c r="L8" t="n">
-        <v>1336.768626388646</v>
+        <v>1590.9540978564</v>
       </c>
       <c r="M8" t="n">
-        <v>2113.0872173804</v>
+        <v>2334.361056703999</v>
       </c>
       <c r="N8" t="n">
-        <v>2866.268234019018</v>
+        <v>3087.542073342617</v>
       </c>
       <c r="O8" t="n">
-        <v>3509.899090436123</v>
+        <v>3731.172929759722</v>
       </c>
       <c r="P8" t="n">
-        <v>4039.055788355275</v>
+        <v>4260.329627678873</v>
       </c>
       <c r="Q8" t="n">
-        <v>4300.886273368438</v>
+        <v>4260.329627678873</v>
       </c>
       <c r="R8" t="n">
         <v>4300.886273368438</v>
       </c>
       <c r="S8" t="n">
-        <v>4300.886273368438</v>
+        <v>4165.605198162539</v>
       </c>
       <c r="T8" t="n">
-        <v>4300.886273368438</v>
+        <v>3960.021316873239</v>
       </c>
       <c r="U8" t="n">
-        <v>4300.886273368438</v>
+        <v>3702.960825132749</v>
       </c>
       <c r="V8" t="n">
-        <v>4137.526969165108</v>
+        <v>3353.12327046923</v>
       </c>
       <c r="W8" t="n">
-        <v>3753.766668300277</v>
+        <v>3353.12327046923</v>
       </c>
       <c r="X8" t="n">
         <v>3353.12327046923</v>
@@ -4892,13 +4892,13 @@
         <v>86.01772546736876</v>
       </c>
       <c r="M9" t="n">
-        <v>928.9948061619355</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="N9" t="n">
-        <v>1802.652898273553</v>
+        <v>959.6758175789867</v>
       </c>
       <c r="O9" t="n">
-        <v>2132.506921317869</v>
+        <v>1663.632908124881</v>
       </c>
       <c r="P9" t="n">
         <v>2132.506921317869</v>
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>86.01772546736876</v>
+        <v>128.8837979371429</v>
       </c>
       <c r="C10" t="n">
         <v>86.01772546736876</v>
@@ -4986,28 +4986,28 @@
         <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1530.143903763618</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="S10" t="n">
-        <v>1343.752135643529</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="T10" t="n">
-        <v>1104.203396620231</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="U10" t="n">
-        <v>821.4052491663549</v>
+        <v>1332.618474634343</v>
       </c>
       <c r="V10" t="n">
-        <v>547.5195041058769</v>
+        <v>1058.732729573865</v>
       </c>
       <c r="W10" t="n">
-        <v>268.4498396147512</v>
+        <v>779.6630650827392</v>
       </c>
       <c r="X10" t="n">
-        <v>86.01772546736876</v>
+        <v>541.3192029424226</v>
       </c>
       <c r="Y10" t="n">
-        <v>86.01772546736876</v>
+        <v>316.5835043311873</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2102.237727455811</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C11" t="n">
-        <v>1692.113136769081</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D11" t="n">
-        <v>1287.649206862142</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E11" t="n">
-        <v>873.3089913790386</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F11" t="n">
-        <v>452.2785793327262</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G11" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H11" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I11" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
         <v>1598.180070079655</v>
@@ -5068,25 +5068,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T11" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U11" t="n">
-        <v>4047.636833531609</v>
+        <v>4183.681998679601</v>
       </c>
       <c r="V11" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.844444016082</v>
       </c>
       <c r="W11" t="n">
-        <v>3314.038978003258</v>
+        <v>3450.08414315125</v>
       </c>
       <c r="X11" t="n">
-        <v>2913.395580172211</v>
+        <v>3049.440745320202</v>
       </c>
       <c r="Y11" t="n">
-        <v>2512.458907120301</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="12">
@@ -5126,19 +5126,19 @@
         <v>549.0499539559215</v>
       </c>
       <c r="L12" t="n">
-        <v>549.0499539559215</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M12" t="n">
-        <v>1236.515282066875</v>
+        <v>2053.115206569777</v>
       </c>
       <c r="N12" t="n">
-        <v>2110.173374178493</v>
+        <v>2053.115206569777</v>
       </c>
       <c r="O12" t="n">
-        <v>2110.173374178493</v>
+        <v>2053.115206569777</v>
       </c>
       <c r="P12" t="n">
-        <v>2110.173374178493</v>
+        <v>2053.115206569777</v>
       </c>
       <c r="Q12" t="n">
         <v>2110.173374178493</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>749.3736558270855</v>
+        <v>323.5179200132935</v>
       </c>
       <c r="C13" t="n">
-        <v>578.280283388802</v>
+        <v>323.5179200132935</v>
       </c>
       <c r="D13" t="n">
-        <v>418.7856387117121</v>
+        <v>164.0232753362035</v>
       </c>
       <c r="E13" t="n">
-        <v>257.8748235800315</v>
+        <v>164.0232753362035</v>
       </c>
       <c r="F13" t="n">
-        <v>93.2436976906228</v>
+        <v>164.0232753362035</v>
       </c>
       <c r="G13" t="n">
         <v>93.2436976906228</v>
@@ -5223,28 +5223,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S13" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T13" t="n">
-        <v>1622.642594311473</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="U13" t="n">
-        <v>1622.642594311473</v>
+        <v>1015.022989509699</v>
       </c>
       <c r="V13" t="n">
-        <v>1622.642594311473</v>
+        <v>1015.022989509699</v>
       </c>
       <c r="W13" t="n">
-        <v>1400.152922972682</v>
+        <v>735.9533250185732</v>
       </c>
       <c r="X13" t="n">
-        <v>1161.809060832365</v>
+        <v>735.9533250185732</v>
       </c>
       <c r="Y13" t="n">
-        <v>937.0733622211299</v>
+        <v>511.2176264073379</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C14" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D14" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E14" t="n">
-        <v>923.0023938441032</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F14" t="n">
-        <v>501.9719817977906</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G14" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H14" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
         <v>1598.180070079655</v>
@@ -5308,22 +5308,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T14" t="n">
-        <v>4304.697325272099</v>
+        <v>4401.813433128853</v>
       </c>
       <c r="U14" t="n">
-        <v>4047.636833531609</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="V14" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W14" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X14" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y14" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="15">
@@ -5366,19 +5366,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M15" t="n">
-        <v>562.1177108836107</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N15" t="n">
-        <v>1435.775802995229</v>
+        <v>966.9017898022406</v>
       </c>
       <c r="O15" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P15" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R15" t="n">
         <v>2139.732893541123</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1182.57754799176</v>
+        <v>323.8094765544416</v>
       </c>
       <c r="C16" t="n">
-        <v>1011.484175553476</v>
+        <v>323.8094765544416</v>
       </c>
       <c r="D16" t="n">
-        <v>851.989530876386</v>
+        <v>323.8094765544416</v>
       </c>
       <c r="E16" t="n">
-        <v>691.0787157447054</v>
+        <v>323.8094765544416</v>
       </c>
       <c r="F16" t="n">
-        <v>526.4475898552967</v>
+        <v>323.8094765544416</v>
       </c>
       <c r="G16" t="n">
-        <v>359.19719878084</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H16" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
@@ -5469,19 +5469,19 @@
         <v>1622.642594311473</v>
       </c>
       <c r="U16" t="n">
-        <v>1622.642594311473</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V16" t="n">
-        <v>1622.642594311473</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="W16" t="n">
-        <v>1622.642594311473</v>
+        <v>786.8890373059935</v>
       </c>
       <c r="X16" t="n">
-        <v>1595.012952997039</v>
+        <v>548.5451751656769</v>
       </c>
       <c r="Y16" t="n">
-        <v>1370.277254385804</v>
+        <v>323.8094765544416</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2134.851174492981</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C17" t="n">
-        <v>1724.726583806251</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D17" t="n">
-        <v>1320.262653899312</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E17" t="n">
-        <v>1320.262653899312</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F17" t="n">
-        <v>899.2322418529996</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G17" t="n">
-        <v>490.5039577458317</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H17" t="n">
         <v>179.5954603735497</v>
@@ -5545,22 +5545,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>4337.310772309269</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U17" t="n">
-        <v>4080.250280568779</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V17" t="n">
-        <v>3730.41272590526</v>
+        <v>3833.844444016082</v>
       </c>
       <c r="W17" t="n">
-        <v>3346.652425040428</v>
+        <v>3450.08414315125</v>
       </c>
       <c r="X17" t="n">
-        <v>2946.009027209381</v>
+        <v>3049.440745320202</v>
       </c>
       <c r="Y17" t="n">
-        <v>2545.072354157471</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="18">
@@ -5603,19 +5603,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M18" t="n">
-        <v>562.1177108836107</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N18" t="n">
-        <v>1435.775802995229</v>
+        <v>966.9017898022406</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1182.57754799176</v>
+        <v>413.6491574993933</v>
       </c>
       <c r="C19" t="n">
-        <v>1011.484175553476</v>
+        <v>413.6491574993933</v>
       </c>
       <c r="D19" t="n">
-        <v>851.989530876386</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="E19" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5697,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S19" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T19" t="n">
-        <v>1622.642594311473</v>
+        <v>1338.314169705468</v>
       </c>
       <c r="U19" t="n">
-        <v>1622.642594311473</v>
+        <v>1338.314169705468</v>
       </c>
       <c r="V19" t="n">
-        <v>1622.642594311473</v>
+        <v>1064.42842464499</v>
       </c>
       <c r="W19" t="n">
-        <v>1343.572929820347</v>
+        <v>1064.42842464499</v>
       </c>
       <c r="X19" t="n">
-        <v>1343.572929820347</v>
+        <v>826.084562504673</v>
       </c>
       <c r="Y19" t="n">
-        <v>1343.572929820347</v>
+        <v>601.3488638934377</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2494.579294402201</v>
+        <v>2134.851174492981</v>
       </c>
       <c r="C20" t="n">
-        <v>2084.454703715471</v>
+        <v>1724.726583806251</v>
       </c>
       <c r="D20" t="n">
-        <v>1679.990773808531</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="E20" t="n">
-        <v>1265.650558325428</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F20" t="n">
-        <v>844.6201462791155</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G20" t="n">
-        <v>435.8918621719477</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H20" t="n">
-        <v>124.9833647996657</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5779,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U20" t="n">
-        <v>4439.978400477999</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V20" t="n">
-        <v>4090.140845814479</v>
+        <v>3730.41272590526</v>
       </c>
       <c r="W20" t="n">
-        <v>3706.380544949648</v>
+        <v>3346.652425040428</v>
       </c>
       <c r="X20" t="n">
-        <v>3305.7371471186</v>
+        <v>2946.009027209381</v>
       </c>
       <c r="Y20" t="n">
-        <v>2904.80047406669</v>
+        <v>2545.072354157471</v>
       </c>
     </row>
     <row r="21">
@@ -5837,22 +5837,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L21" t="n">
-        <v>754.331869609911</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M21" t="n">
-        <v>754.331869609911</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N21" t="n">
-        <v>1627.989961721529</v>
+        <v>966.9017898022406</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1015.327156917303</v>
+        <v>566.9769234516648</v>
       </c>
       <c r="C22" t="n">
-        <v>844.2337844790193</v>
+        <v>566.9769234516648</v>
       </c>
       <c r="D22" t="n">
-        <v>684.7391398019292</v>
+        <v>407.4822787745749</v>
       </c>
       <c r="E22" t="n">
-        <v>523.8283246702488</v>
+        <v>407.4822787745749</v>
       </c>
       <c r="F22" t="n">
-        <v>359.19719878084</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="G22" t="n">
-        <v>359.19719878084</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H22" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5937,25 +5937,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>1622.642594311473</v>
+        <v>1491.641935657739</v>
       </c>
       <c r="T22" t="n">
-        <v>1622.642594311473</v>
+        <v>1491.641935657739</v>
       </c>
       <c r="U22" t="n">
-        <v>1622.642594311473</v>
+        <v>1491.641935657739</v>
       </c>
       <c r="V22" t="n">
-        <v>1622.642594311473</v>
+        <v>1217.756190597261</v>
       </c>
       <c r="W22" t="n">
-        <v>1622.642594311473</v>
+        <v>1217.756190597261</v>
       </c>
       <c r="X22" t="n">
-        <v>1427.762561922582</v>
+        <v>979.4123284569445</v>
       </c>
       <c r="Y22" t="n">
-        <v>1203.026863311347</v>
+        <v>754.6766298457092</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2324.444211508952</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C23" t="n">
-        <v>1914.319620822223</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D23" t="n">
-        <v>1509.855690915283</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E23" t="n">
-        <v>1095.51547543218</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F23" t="n">
-        <v>674.4850633858673</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G23" t="n">
-        <v>265.7567792786995</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H23" t="n">
         <v>179.5954603735497</v>
@@ -6019,22 +6019,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T23" t="n">
-        <v>4526.90380932524</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U23" t="n">
-        <v>4269.84331758475</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V23" t="n">
-        <v>3920.005762921231</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W23" t="n">
-        <v>3536.245462056399</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X23" t="n">
-        <v>3135.602064225352</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y23" t="n">
-        <v>2734.665391173442</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="24">
@@ -6077,16 +6077,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q24" t="n">
         <v>2139.732893541123</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>423.8317148059963</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="C25" t="n">
-        <v>252.7383423677128</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="D25" t="n">
-        <v>93.2436976906228</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="E25" t="n">
-        <v>93.2436976906228</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="F25" t="n">
-        <v>93.2436976906228</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G25" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H25" t="n">
         <v>93.2436976906228</v>
@@ -6180,19 +6180,19 @@
         <v>1622.642594311473</v>
       </c>
       <c r="U25" t="n">
-        <v>1622.642594311473</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V25" t="n">
-        <v>1353.680646442718</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="W25" t="n">
-        <v>1074.610981951593</v>
+        <v>786.8890373059935</v>
       </c>
       <c r="X25" t="n">
-        <v>836.267119811276</v>
+        <v>786.8890373059935</v>
       </c>
       <c r="Y25" t="n">
-        <v>611.5314212000407</v>
+        <v>597.8012503536671</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2462.839627293158</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C26" t="n">
-        <v>2052.715036606428</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D26" t="n">
-        <v>1648.251106699488</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E26" t="n">
-        <v>1233.910891216385</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F26" t="n">
-        <v>812.8804791700727</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G26" t="n">
-        <v>404.1521950629048</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H26" t="n">
         <v>93.2436976906228</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T26" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U26" t="n">
-        <v>4408.238733368956</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V26" t="n">
-        <v>4058.401178705436</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W26" t="n">
-        <v>3674.640877840605</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X26" t="n">
-        <v>3273.997480009557</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y26" t="n">
-        <v>2873.060806957647</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="27">
@@ -6311,22 +6311,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L27" t="n">
-        <v>592.7987223006619</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M27" t="n">
-        <v>1435.775802995229</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N27" t="n">
-        <v>1435.775802995229</v>
+        <v>754.331869609911</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1182.57754799176</v>
+        <v>264.3370701289063</v>
       </c>
       <c r="C28" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6411,25 +6411,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T28" t="n">
-        <v>1622.642594311473</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U28" t="n">
-        <v>1622.642594311473</v>
+        <v>1006.486295371584</v>
       </c>
       <c r="V28" t="n">
-        <v>1622.642594311473</v>
+        <v>1006.486295371584</v>
       </c>
       <c r="W28" t="n">
-        <v>1343.572929820347</v>
+        <v>727.4166308804582</v>
       </c>
       <c r="X28" t="n">
-        <v>1343.572929820347</v>
+        <v>489.0727687401416</v>
       </c>
       <c r="Y28" t="n">
-        <v>1343.572929820347</v>
+        <v>264.3370701289063</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C29" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D29" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E29" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F29" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G29" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H29" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6493,22 +6493,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T29" t="n">
-        <v>4662.18488453114</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U29" t="n">
-        <v>4494.590496051882</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V29" t="n">
-        <v>4144.752941388363</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W29" t="n">
-        <v>3760.992640523532</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X29" t="n">
-        <v>3360.349242692484</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y29" t="n">
-        <v>2959.412569640574</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>1210.13812587521</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.13812587521</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N30" t="n">
-        <v>1210.13812587521</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O30" t="n">
-        <v>1578.027001052593</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1182.57754799176</v>
+        <v>545.922820022489</v>
       </c>
       <c r="C31" t="n">
-        <v>1011.484175553476</v>
+        <v>545.922820022489</v>
       </c>
       <c r="D31" t="n">
-        <v>851.989530876386</v>
+        <v>545.922820022489</v>
       </c>
       <c r="E31" t="n">
-        <v>691.0787157447054</v>
+        <v>545.922820022489</v>
       </c>
       <c r="F31" t="n">
-        <v>526.4475898552967</v>
+        <v>381.2916941330802</v>
       </c>
       <c r="G31" t="n">
-        <v>359.19719878084</v>
+        <v>214.0413030586236</v>
       </c>
       <c r="H31" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
@@ -6648,25 +6648,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T31" t="n">
-        <v>1622.642594311473</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U31" t="n">
-        <v>1622.642594311473</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="V31" t="n">
-        <v>1622.642594311473</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="W31" t="n">
-        <v>1622.642594311473</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="X31" t="n">
-        <v>1595.012952997039</v>
+        <v>958.3582250277686</v>
       </c>
       <c r="Y31" t="n">
-        <v>1370.277254385804</v>
+        <v>733.6225264165333</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2459.725286714852</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C32" t="n">
-        <v>2049.600696028122</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D32" t="n">
-        <v>1645.136766121183</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E32" t="n">
-        <v>1230.796550638079</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F32" t="n">
-        <v>809.7661385917668</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G32" t="n">
-        <v>401.0378544845989</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H32" t="n">
         <v>93.2436976906228</v>
@@ -6730,22 +6730,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T32" t="n">
-        <v>4662.18488453114</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U32" t="n">
-        <v>4405.12439279065</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V32" t="n">
-        <v>4055.286838127131</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W32" t="n">
-        <v>3671.526537262299</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X32" t="n">
-        <v>3270.883139431251</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y32" t="n">
-        <v>2869.946466379341</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>537.5348450866911</v>
       </c>
       <c r="L33" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M33" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N33" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>359.19719878084</v>
+        <v>581.1949163979062</v>
       </c>
       <c r="C34" t="n">
-        <v>359.19719878084</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="D34" t="n">
-        <v>359.19719878084</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="E34" t="n">
-        <v>359.19719878084</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="F34" t="n">
-        <v>359.19719878084</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G34" t="n">
-        <v>359.19719878084</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H34" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
@@ -6882,28 +6882,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S34" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T34" t="n">
-        <v>1383.093855288175</v>
+        <v>1286.308149423393</v>
       </c>
       <c r="U34" t="n">
-        <v>1100.295707834299</v>
+        <v>1286.308149423393</v>
       </c>
       <c r="V34" t="n">
-        <v>826.4099627738212</v>
+        <v>1286.308149423393</v>
       </c>
       <c r="W34" t="n">
-        <v>547.3402982826956</v>
+        <v>1007.238484932267</v>
       </c>
       <c r="X34" t="n">
-        <v>359.19719878084</v>
+        <v>768.8946227919506</v>
       </c>
       <c r="Y34" t="n">
-        <v>359.19719878084</v>
+        <v>768.8946227919506</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2512.458907120301</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C35" t="n">
-        <v>2102.334316433571</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D35" t="n">
-        <v>1697.870386526632</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E35" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F35" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G35" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H35" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6967,22 +6967,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T35" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U35" t="n">
-        <v>4047.636833531609</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V35" t="n">
-        <v>3697.79927886809</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W35" t="n">
-        <v>3314.038978003258</v>
+        <v>3536.245462056399</v>
       </c>
       <c r="X35" t="n">
-        <v>2913.395580172211</v>
+        <v>3135.602064225352</v>
       </c>
       <c r="Y35" t="n">
-        <v>2512.458907120301</v>
+        <v>2734.665391173442</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>704.368908940975</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M36" t="n">
-        <v>704.368908940975</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N36" t="n">
-        <v>1578.027001052593</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O36" t="n">
-        <v>1578.027001052593</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1124.934470981593</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="C37" t="n">
-        <v>953.8410985433093</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="D37" t="n">
-        <v>794.3464538662192</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="E37" t="n">
-        <v>633.4356387345388</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
-        <v>468.80451284513</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>301.5541217706734</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
-        <v>151.9466665761301</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
@@ -7122,25 +7122,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S37" t="n">
-        <v>1537.369875986873</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T37" t="n">
-        <v>1537.369875986873</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U37" t="n">
-        <v>1537.369875986873</v>
+        <v>940.4756628880612</v>
       </c>
       <c r="V37" t="n">
-        <v>1537.369875986873</v>
+        <v>666.589917827583</v>
       </c>
       <c r="W37" t="n">
-        <v>1537.369875986873</v>
+        <v>666.589917827583</v>
       </c>
       <c r="X37" t="n">
-        <v>1537.369875986873</v>
+        <v>666.589917827583</v>
       </c>
       <c r="Y37" t="n">
-        <v>1312.634177375637</v>
+        <v>441.8542192163477</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2549.191389976085</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C38" t="n">
-        <v>2139.066799289355</v>
+        <v>1827.394211974981</v>
       </c>
       <c r="D38" t="n">
-        <v>1734.602869382415</v>
+        <v>1422.930282068041</v>
       </c>
       <c r="E38" t="n">
-        <v>1320.262653899312</v>
+        <v>1008.590066584938</v>
       </c>
       <c r="F38" t="n">
-        <v>899.2322418529996</v>
+        <v>587.5596545386256</v>
       </c>
       <c r="G38" t="n">
-        <v>490.5039577458317</v>
+        <v>178.8313704314578</v>
       </c>
       <c r="H38" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7201,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T38" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U38" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V38" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W38" t="n">
-        <v>3314.038978003258</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X38" t="n">
-        <v>2913.395580172211</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y38" t="n">
-        <v>2549.191389976085</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M39" t="n">
-        <v>562.1177108836107</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N39" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3458.450207833939</v>
+        <v>648.3498080919331</v>
       </c>
       <c r="C40" t="n">
-        <v>3287.356835395656</v>
+        <v>648.3498080919331</v>
       </c>
       <c r="D40" t="n">
-        <v>3132.785987910289</v>
+        <v>568.3930939062554</v>
       </c>
       <c r="E40" t="n">
-        <v>3132.785987910289</v>
+        <v>407.4822787745749</v>
       </c>
       <c r="F40" t="n">
-        <v>3132.785987910289</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="G40" t="n">
-        <v>3132.785987910289</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H40" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K40" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L40" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M40" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N40" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O40" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P40" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q40" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>4662.18488453114</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S40" t="n">
-        <v>4662.18488453114</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T40" t="n">
-        <v>4662.18488453114</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U40" t="n">
-        <v>4662.18488453114</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="V40" t="n">
-        <v>4388.299139470661</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="W40" t="n">
-        <v>4109.229474979536</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="X40" t="n">
-        <v>3870.885612839219</v>
+        <v>873.0855067031684</v>
       </c>
       <c r="Y40" t="n">
-        <v>3646.149914227984</v>
+        <v>648.3498080919331</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2462.839627293158</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C41" t="n">
-        <v>2052.715036606428</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D41" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E41" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F41" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G41" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H41" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
@@ -7438,25 +7438,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U41" t="n">
-        <v>4408.238733368956</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V41" t="n">
-        <v>4058.401178705436</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W41" t="n">
-        <v>3674.640877840605</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X41" t="n">
-        <v>3273.997480009557</v>
+        <v>2959.412569640574</v>
       </c>
       <c r="Y41" t="n">
-        <v>2873.060806957647</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M42" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N42" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O42" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P42" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q42" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R42" t="n">
         <v>2139.732893541123</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3175.652060380064</v>
+        <v>607.6240057411241</v>
       </c>
       <c r="C43" t="n">
-        <v>3175.652060380064</v>
+        <v>436.5306333028406</v>
       </c>
       <c r="D43" t="n">
-        <v>3132.785987910289</v>
+        <v>436.5306333028406</v>
       </c>
       <c r="E43" t="n">
-        <v>3132.785987910289</v>
+        <v>436.5306333028406</v>
       </c>
       <c r="F43" t="n">
-        <v>3132.785987910289</v>
+        <v>436.5306333028406</v>
       </c>
       <c r="G43" t="n">
-        <v>3132.785987910289</v>
+        <v>269.2802422283839</v>
       </c>
       <c r="H43" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>4662.18488453114</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S43" t="n">
-        <v>4662.18488453114</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T43" t="n">
-        <v>4662.18488453114</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U43" t="n">
-        <v>4379.386737077264</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="V43" t="n">
-        <v>4105.500992016786</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="W43" t="n">
-        <v>3826.43132752566</v>
+        <v>832.3597043523594</v>
       </c>
       <c r="X43" t="n">
-        <v>3588.087465385343</v>
+        <v>832.3597043523594</v>
       </c>
       <c r="Y43" t="n">
-        <v>3363.351766774108</v>
+        <v>607.6240057411241</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2462.839627293158</v>
+        <v>2359.298219196301</v>
       </c>
       <c r="C44" t="n">
-        <v>2052.715036606428</v>
+        <v>1949.173628509571</v>
       </c>
       <c r="D44" t="n">
-        <v>1648.251106699488</v>
+        <v>1544.709698602632</v>
       </c>
       <c r="E44" t="n">
-        <v>1233.910891216385</v>
+        <v>1130.369483119528</v>
       </c>
       <c r="F44" t="n">
-        <v>812.8804791700727</v>
+        <v>709.339071073216</v>
       </c>
       <c r="G44" t="n">
-        <v>404.1521950629048</v>
+        <v>300.6107869660482</v>
       </c>
       <c r="H44" t="n">
         <v>93.2436976906228</v>
@@ -7651,7 +7651,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
         <v>1598.180070079655</v>
@@ -7681,19 +7681,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>4047.636833531609</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V44" t="n">
-        <v>3697.79927886809</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W44" t="n">
-        <v>3674.640877840605</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X44" t="n">
-        <v>3273.997480009557</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y44" t="n">
-        <v>2873.060806957647</v>
+        <v>2769.519398860791</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M45" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N45" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O45" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P45" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R45" t="n">
         <v>2139.732893541123</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3175.755121771036</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C46" t="n">
-        <v>3175.755121771036</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D46" t="n">
-        <v>3175.755121771036</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E46" t="n">
-        <v>3175.755121771036</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F46" t="n">
-        <v>3175.755121771036</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G46" t="n">
-        <v>3175.755121771036</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H46" t="n">
-        <v>3175.755121771036</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>4475.79311641105</v>
+        <v>1545.439515804519</v>
       </c>
       <c r="T46" t="n">
-        <v>4236.244377387751</v>
+        <v>1305.890776781221</v>
       </c>
       <c r="U46" t="n">
-        <v>3953.446229933875</v>
+        <v>1023.092629327345</v>
       </c>
       <c r="V46" t="n">
-        <v>3679.560484873397</v>
+        <v>1023.092629327345</v>
       </c>
       <c r="W46" t="n">
-        <v>3400.490820382272</v>
+        <v>744.0229648362191</v>
       </c>
       <c r="X46" t="n">
-        <v>3400.490820382272</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="Y46" t="n">
-        <v>3175.755121771036</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
   </sheetData>
@@ -7978,19 +7978,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
         <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>534.7878950544006</v>
+        <v>269.4773261669552</v>
       </c>
       <c r="O2" t="n">
         <v>615.2533459958087</v>
@@ -8060,13 +8060,13 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>500.8626362276486</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
         <v>575.2569637637755</v>
@@ -8075,13 +8075,13 @@
         <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>422.1224761037303</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8227,19 +8227,19 @@
         <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>296.4405581451824</v>
       </c>
       <c r="P5" t="n">
-        <v>535.5249675786654</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,16 +8297,16 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>98.1240166537967</v>
+        <v>175.2980289959028</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
         <v>579.8150493700256</v>
@@ -8315,10 +8315,10 @@
         <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
         <v>632.7318453389136</v>
@@ -8461,7 +8461,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>877.4504173780091</v>
+        <v>844.2063445051244</v>
       </c>
       <c r="N8" t="n">
         <v>853.701196452193</v>
@@ -8473,10 +8473,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>354.5090417861859</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8540,16 +8540,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O9" t="n">
-        <v>390.9373608629447</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>527.8697493391549</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
@@ -8704,7 +8704,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
-        <v>743.321953824879</v>
+        <v>743.3219538248791</v>
       </c>
       <c r="P11" t="n">
         <v>628.1510783507341</v>
@@ -8774,13 +8774,13 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>751.9737060727139</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
         <v>57.751479</v>
@@ -8789,7 +8789,7 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>114.3271312409158</v>
       </c>
       <c r="R12" t="n">
         <v>88.85829947169823</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
         <v>632.7318453389136</v>
@@ -8950,7 +8950,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9014,22 +9014,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>291.8133246603422</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9251,22 +9251,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>291.8133246603422</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K20" t="n">
         <v>632.7318453389136</v>
@@ -9485,7 +9485,7 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
         <v>57.56428373841742</v>
@@ -9494,16 +9494,16 @@
         <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
-        <v>574.6635313430244</v>
+        <v>291.8133246603422</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9725,19 +9725,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>488.5284925170755</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9959,25 +9959,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>560.7155587704844</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>506.5304157637054</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,13 +10190,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M30" t="n">
         <v>57.56428373841742</v>
@@ -10205,16 +10205,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>429.3564034215989</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,10 +10427,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>309.8442573638428</v>
       </c>
       <c r="L33" t="n">
         <v>723.8803540323523</v>
@@ -10439,19 +10439,19 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>741.5205988334646</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10591,7 +10591,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L35" t="n">
-        <v>815.2746908024792</v>
+        <v>815.2746908024794</v>
       </c>
       <c r="M35" t="n">
         <v>877.4504173780091</v>
@@ -10664,19 +10664,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>673.412716993023</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M36" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
         <v>57.751479</v>
@@ -10685,10 +10685,10 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
@@ -10901,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M39" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
-        <v>815.2746908024792</v>
+        <v>815.2746908024794</v>
       </c>
       <c r="M41" t="n">
         <v>877.4504173780091</v>
@@ -11138,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
         <v>815.2746908024792</v>
@@ -11320,7 +11320,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>0.756449042671278</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23418,19 +23418,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>95.50610529458707</v>
       </c>
       <c r="H13" t="n">
         <v>148.1113806425979</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>56.01419322081091</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23503,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>49.19646844041392</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,13 +23548,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>96.14494677818635</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>85.42914673112926</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,16 +23709,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23740,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,13 +23785,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>32.28731256679822</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>134.6847134965117</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>26.43728131980203</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>224.6159528533629</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23977,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>54.06597461814515</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>32.28731256679816</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>54.83719837169238</v>
       </c>
       <c r="T22" t="n">
         <v>237.1532516330649</v>
@@ -24186,13 +24186,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>43.02919145391172</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>222.4997066824609</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>134.6847134965116</v>
       </c>
     </row>
     <row r="24">
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
@@ -24378,10 +24378,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>115.1825854367171</v>
@@ -24420,19 +24420,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>4.874559219806031</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>35.29143254231982</v>
       </c>
     </row>
     <row r="26">
@@ -24454,13 +24454,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
         <v>85.48824505609757</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>223.0676163851326</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>26.43728131980203</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>91.65653210080077</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>223.0676163851324</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,10 +24733,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>28.52175132827708</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>279.9701659793371</v>
@@ -24903,7 +24903,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>3.08319717252283</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>85.48824505609757</v>
@@ -24970,7 +24970,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>223.0676163851327</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
@@ -25089,13 +25089,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>173.1299927741088</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>49.69875501207648</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>137.0114616263631</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25162,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>36.36515802722585</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>57.06664624006491</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>110.7259970834675</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>223.0676163851325</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>36.36515802722602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>4.8745592198064</v>
+        <v>78.74255118649816</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>115.1825854367171</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>3.083197172522915</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>45.55681957368</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>115.4622864852425</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
@@ -25800,13 +25800,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>89.0177869869315</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>102.5059940158881</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -25921,13 +25921,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>356.9958808389729</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
@@ -26043,7 +26043,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>72.64314291457782</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>108.096802717004</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>608507.0142538614</v>
+        <v>608507.0142538613</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>608507.0142538613</v>
+        <v>608507.0142538615</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>608507.0142538614</v>
+        <v>608507.0142538613</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>608507.0142538615</v>
+        <v>608507.0142538614</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>608507.0142538614</v>
+        <v>608507.0142538613</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>608507.0142538614</v>
+        <v>608507.0142538613</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>608507.0142538615</v>
+        <v>608507.0142538614</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>608507.0142538614</v>
+        <v>608507.0142538613</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>608507.0142538615</v>
+        <v>608507.0142538612</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>608507.0142538615</v>
+        <v>608507.0142538613</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>608507.0142538614</v>
+        <v>608507.0142538613</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472358.939794125</v>
+        <v>472358.9397941251</v>
       </c>
       <c r="C2" t="n">
-        <v>472358.9397941252</v>
+        <v>472358.9397941251</v>
       </c>
       <c r="D2" t="n">
-        <v>472358.9397941252</v>
+        <v>472358.9397941251</v>
       </c>
       <c r="E2" t="n">
-        <v>419990.567925886</v>
+        <v>419990.5679258858</v>
       </c>
       <c r="F2" t="n">
         <v>419990.5679258859</v>
@@ -26331,31 +26331,31 @@
         <v>419990.5679258859</v>
       </c>
       <c r="H2" t="n">
-        <v>419990.5679258859</v>
+        <v>419990.5679258857</v>
       </c>
       <c r="I2" t="n">
         <v>419990.5679258858</v>
       </c>
       <c r="J2" t="n">
-        <v>419990.5679258857</v>
+        <v>419990.5679258858</v>
       </c>
       <c r="K2" t="n">
-        <v>419990.5679258859</v>
+        <v>419990.5679258858</v>
       </c>
       <c r="L2" t="n">
-        <v>419990.567925886</v>
+        <v>419990.5679258858</v>
       </c>
       <c r="M2" t="n">
         <v>419990.567925886</v>
       </c>
       <c r="N2" t="n">
+        <v>419990.567925886</v>
+      </c>
+      <c r="O2" t="n">
+        <v>419990.5679258859</v>
+      </c>
+      <c r="P2" t="n">
         <v>419990.5679258858</v>
-      </c>
-      <c r="O2" t="n">
-        <v>419990.567925886</v>
-      </c>
-      <c r="P2" t="n">
-        <v>419990.5679258861</v>
       </c>
     </row>
     <row r="3">
@@ -26423,7 +26423,7 @@
         <v>164775.2337200961</v>
       </c>
       <c r="D4" t="n">
-        <v>71864.46850972365</v>
+        <v>71864.46850972367</v>
       </c>
       <c r="E4" t="n">
         <v>15465.37373706398</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>67259.13110241736</v>
+        <v>67259.13110241739</v>
       </c>
       <c r="C6" t="n">
-        <v>242214.6409955316</v>
+        <v>242214.6409955314</v>
       </c>
       <c r="D6" t="n">
-        <v>129665.9310191328</v>
+        <v>129665.9310191327</v>
       </c>
       <c r="E6" t="n">
-        <v>306691.0297630145</v>
+        <v>306510.4491703652</v>
       </c>
       <c r="F6" t="n">
-        <v>333659.9839439486</v>
+        <v>333479.4033512995</v>
       </c>
       <c r="G6" t="n">
-        <v>333659.9839439486</v>
+        <v>333479.4033512995</v>
       </c>
       <c r="H6" t="n">
-        <v>333659.9839439486</v>
+        <v>333479.4033512993</v>
       </c>
       <c r="I6" t="n">
-        <v>333659.9839439486</v>
+        <v>333479.4033512995</v>
       </c>
       <c r="J6" t="n">
-        <v>197065.1831380535</v>
+        <v>196884.6025454044</v>
       </c>
       <c r="K6" t="n">
-        <v>333659.9839439486</v>
+        <v>333479.4033512995</v>
       </c>
       <c r="L6" t="n">
-        <v>193660.673079196</v>
+        <v>193480.0924865467</v>
       </c>
       <c r="M6" t="n">
-        <v>311150.7191699013</v>
+        <v>310970.1385772522</v>
       </c>
       <c r="N6" t="n">
-        <v>333659.9839439486</v>
+        <v>333479.4033512996</v>
       </c>
       <c r="O6" t="n">
-        <v>333659.9839439487</v>
+        <v>333479.4033512995</v>
       </c>
       <c r="P6" t="n">
-        <v>333659.9839439488</v>
+        <v>333479.4033512994</v>
       </c>
     </row>
   </sheetData>
@@ -27387,7 +27387,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>12.21906234721837</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>305.2990122959185</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
@@ -27557,7 +27557,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>1.814339943627772</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.562004291913468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,13 +27621,13 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>11.48287933845643</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>189.1619494559996</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27782,10 +27782,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>39.22463990372334</v>
       </c>
       <c r="F7" t="n">
-        <v>36.45061280844926</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27824,7 +27824,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
@@ -27833,16 +27833,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>16.45637673620294</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>184.6134679555875</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>126.9450269688242</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>55.35263051300481</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
-        <v>441.8756042977812</v>
+        <v>176.5650354103359</v>
       </c>
       <c r="O2" t="n">
         <v>522.0635703700256</v>
@@ -34780,13 +34780,13 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>445.0368534430332</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>522.0635703700256</v>
@@ -34795,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>367.8628411009266</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34947,19 +34947,19 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="P5" t="n">
-        <v>441.8756042977812</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>117.7337452574854</v>
+      </c>
+      <c r="N6" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M6" t="n">
-        <v>40.55973291537929</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>522.0635703700256</v>
@@ -35035,10 +35035,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
         <v>543.5954556656965</v>
@@ -35181,7 +35181,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>784.1601929209636</v>
+        <v>750.9161200480789</v>
       </c>
       <c r="N8" t="n">
         <v>760.7889056955737</v>
@@ -35193,10 +35193,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>264.4752373870339</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35260,16 +35260,16 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O9" t="n">
-        <v>333.1858818629447</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>473.6101143363511</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
@@ -35424,7 +35424,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
-        <v>650.1321781990958</v>
+        <v>650.132178199096</v>
       </c>
       <c r="P11" t="n">
         <v>534.50171506985</v>
@@ -35494,13 +35494,13 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>694.4094223342964</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35509,7 +35509,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>57.63451273607708</v>
       </c>
       <c r="R12" t="n">
         <v>29.85810036629282</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
         <v>543.5954556656965</v>
@@ -35670,7 +35670,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35734,22 +35734,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>234.0618456603422</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,22 +35971,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>234.0618456603422</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K20" t="n">
         <v>543.5954556656965</v>
@@ -36205,7 +36205,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36214,16 +36214,16 @@
         <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
-        <v>516.9120523430244</v>
+        <v>234.0618456603422</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36445,19 +36445,19 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>435.3350991233255</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36679,25 +36679,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>504.6010349596355</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>448.7789367637054</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36925,16 +36925,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>371.6049244215989</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>254.0184745792274</v>
       </c>
       <c r="L33" t="n">
         <v>667.7658302215033</v>
@@ -37159,19 +37159,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>688.3272054397147</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37311,7 +37311,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L35" t="n">
-        <v>719.7892927396343</v>
+        <v>719.7892927396346</v>
       </c>
       <c r="M35" t="n">
         <v>784.1601929209636</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>617.2981931821739</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37405,10 +37405,10 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
         <v>543.5954556656965</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M39" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
-        <v>719.7892927396343</v>
+        <v>719.7892927396346</v>
       </c>
       <c r="M41" t="n">
         <v>784.1601929209636</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
         <v>719.7892927396343</v>
@@ -38040,7 +38040,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M45" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
